--- a/tests/testdata/src_px2/px-files/blogs/blogtest2.xlsx
+++ b/tests/testdata/src_px2/px-files/blogs/blogtest2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.0</t>
   </si>
@@ -23,7 +23,7 @@
     <t>[px2-clover] Blog</t>
   </si>
   <si>
-    <t>Exported: 2023-07-02 13:21:20</t>
+    <t>Exported: 2023-07-23 20:00:44</t>
   </si>
   <si>
     <t>ページタイトル</t>
@@ -47,6 +47,9 @@
     <t>article_flg</t>
   </si>
   <si>
+    <t>layout</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -65,6 +68,21 @@
     <t>article_summary</t>
   </si>
   <si>
+    <t>ブログテスト記事2</t>
+  </si>
+  <si>
+    <t>/blogtest2/2023/04/06/</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>article_keywords sample (ブログテスト記事2)</t>
+  </si>
+  <si>
+    <t>article_summary sample (ブログテスト記事2)</t>
+  </si>
+  <si>
     <t>ブログテスト記事1</t>
   </si>
   <si>
@@ -78,21 +96,6 @@
   </si>
   <si>
     <t>article_summary sample</t>
-  </si>
-  <si>
-    <t>ブログテスト記事2</t>
-  </si>
-  <si>
-    <t>/blogtest2/2023/04/06/</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>article_keywords sample (ブログテスト記事2)</t>
-  </si>
-  <si>
-    <t>article_summary sample (ブログテスト記事2)</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -507,13 +510,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,7 +529,7 @@
     <col min="6" max="6" width="30" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customHeight="1" ht="10">
+    <row r="1" spans="1:8" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,18 +539,19 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -569,79 +573,87 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" customHeight="1" ht="5">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="13" spans="1:8" customHeight="1" ht="5">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -649,6 +661,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
